--- a/sessions/02/02-In-Class-Lab/data/_hist03z1-fy2019.xlsx
+++ b/sessions/02/02-In-Class-Lab/data/_hist03z1-fy2019.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amarton/Documents/GitHub/data-journalism-class/adam-work/class2-spreadsheet-basics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smussend/Desktop/data-journalism-19-spring/sessions/02/02-In-Class-Lab/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18180" windowHeight="17540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18180" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -391,7 +399,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,###"/>
     <numFmt numFmtId="165" formatCode="##,##0.0"/>
@@ -904,11 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15082,7 +15087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/sessions/02/02-In-Class-Lab/data/_hist03z1-fy2019.xlsx
+++ b/sessions/02/02-In-Class-Lab/data/_hist03z1-fy2019.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18180" windowHeight="14320"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18180" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
-    <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="121">
   <si>
     <t>Table 3.1 - OUTLAYS BY SUPERFUNCTION AND FUNCTION:  1940 - 2023</t>
   </si>
@@ -391,9 +390,6 @@
   </si>
   <si>
     <t>* 0.05 percent or less</t>
-  </si>
-  <si>
-    <t>https://www.whitehouse.gov/omb/historical-tables/</t>
   </si>
 </sst>
 </file>
@@ -15081,22 +15077,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" useFirstPageNumber="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>